--- a/output/processed_prescriptions.xlsx
+++ b/output/processed_prescriptions.xlsx
@@ -2998,325 +2998,325 @@
     <t>2025-07-10</t>
   </si>
   <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Luxor\Luxor\1753214322203.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Tanta\1748458027844.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\New Valley Governorate\Kharga Oasis\1752339522214.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sohag\Girga\1753098601085.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Borg El Arab\1750957471865.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qena\Qena\1748184076568.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Red Sea Governorate\Ras Gharib\1751372434458.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Faiyum\Yousef El Sediq\1750863537783.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Cairo\Nasr City\1753215593688.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Tanta\1753358992659.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Ismailia\Ismailia\1751585723916.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qalyubia\Qalyub\1751372640524.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Gharbia\1751292015524.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qalyubia\Shubra El Kheima\1752289186601.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Menoufia\Sadat City\1748188585885.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sohag\Tahta\1752288653795.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Aswan\Edfu\1748188796006.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Kafr El Sheikh\Kafr El Sheikh\1753213831431.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Faiyum\Ibshaway\1753215852691.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Port Said\Port Fouad\1751322836470.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Aswan\Aswan\1753216500697.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Dakahlia\Sherbin\1750956200537.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Faiyum\Tamiya\1748183476354.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Red Sea Governorate\Ras Gharib\1753102110952.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Ismailia\Ismailia\1752397302153.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Giza\Sheikh Zayed City\1753214815319.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Borg El Arab\1748184587285.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Ismailia\Fayed\1748190504090.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Luxor\Tod\1751327300215.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sharqia\Zagazig\1753097962188.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Samannoud\1753365017650.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sohag\Girga\1752290533720.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sharqia\Abu Kabir\1751553740266.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Matrouh\Marsa Matruh\1748184324196.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Luxor\Armant\1751324650562.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Sidi Gaber\1748182535781.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Faiyum\Yousef El Sediq\1748183833651.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Cairo\Cairo\1748187461033.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Samannoud\1750862971521.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Menoufia\Ashmoun\1748189049697.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Cairo\Heliopolis\1751324626610.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Dakahlia\Sherbin\1748183523234.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Menoufia\Sadat City\1748284620606.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beheira\Damanhur\1751329932794.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Dakahlia\Sherbin\1752327340805.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qena\Qus\1751325784350.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qalyubia\Qalyub\1748194095818.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Giza\6th of October City\1750956204840.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Sidi Gaber\1748187615024.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Assiut\Dayrout\1751898538517.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beni Suef\Ihnasia\1751016776832.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Minya\Maghagha\1752272692180.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Assiut\Dayrout\1751372612592.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Aswan\Kom Ombo\1752328543373.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Faiyum\Faiyum\1748190407026.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Amreya\1748187885077.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Assiut\Dayrout\1751417691617.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Cairo\Cairo\1751325126919.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Alexandria\1753251693444.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Minya\Mallawi\1751372254871.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beni Suef\El Wasta\1748183848335.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\New Valley Governorate\Balat\1748189021714.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Kafr El Sheikh\Sidi Salem\1748183818081.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qalyubia\Qalyubia\1751017073944.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Damietta\Kafr Saad\1752009957526.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Giza\Giza\1750955843820.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\New Valley Governorate\Farafra Oasis\1748187526724.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beheira\Damanhur\1748190827064.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sharqia\Belbeis\1752288681480.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Faiyum\Sinnuris\1753215102692.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\North Sinai\Nakhl\1748284200807.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Luxor\Karnak\1748284212660.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Matrouh\El Alamein\1748284350348.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beni Suef\Biba\1751554839631.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Giza\6th of October City\1753095498055.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Suez\Ain Sokhna\1753214551697.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Damietta\Ras El Bar\1748194218398.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beheira\Kafr El Dawwar\1751324755603.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sohag\El Balyana\1751645779961.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Ismailia\Ismailia\1752331726790.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Beni Suef\Ihnasia\1748184333729.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Giza\Imbaba\1748284501829.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Alexandria\Montaza\1751585782561.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Kafr El Sheikh\Sidi Salem\1748185004394.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Kafr El Sheikh\Fuwwah\1753213471369.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qena\Qena\1748183332898.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sohag\El Balyana\1752609044752.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Tanta\1753251866602.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Kafr El Zayat\1752288607805.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Luxor\Esna\1748190846939.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Matrouh\Marsa Matruh\1748190836844.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qena\Abu Tesht\1748183866459.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Assiut\Dayrout\1748188968659.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Sharqia\10th of Ramadan\1753103108213.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Port Said\El Manakh\1751980163279.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\South Sinai\Taba\1750863598833.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\North Sinai\Nakhl\1748283021256.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\South Sinai\Taba\1750704643086.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qalyubia\Banha\1748283847255.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Qalyubia\Tokh\1748822732690.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\El Mahalla El Kubra\1748284184507.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Red Sea Governorate\El Quseir\1748283822912.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Luxor\Esna\1753251757933.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Gharbia\Gharbia\1753214944403.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Damietta\Faraskur\1749208372475.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Ismailia\Fayed\1748283787504.jpg</t>
-  </si>
-  <si>
-    <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\New Valley Governorate\Baris\1748283044914.jpg</t>
+    <t>organized_images\Luxor\Luxor\1753214322203.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Tanta\1748458027844.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\New Valley Governorate\Kharga Oasis\1752339522214.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sohag\Girga\1753098601085.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Borg El Arab\1750957471865.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qena\Qena\1748184076568.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Red Sea Governorate\Ras Gharib\1751372434458.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Faiyum\Yousef El Sediq\1750863537783.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Cairo\Nasr City\1753215593688.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Tanta\1753358992659.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Ismailia\Ismailia\1751585723916.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qalyubia\Qalyub\1751372640524.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Gharbia\1751292015524.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qalyubia\Shubra El Kheima\1752289186601.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Menoufia\Sadat City\1748188585885.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sohag\Tahta\1752288653795.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Aswan\Edfu\1748188796006.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Kafr El Sheikh\Kafr El Sheikh\1753213831431.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Faiyum\Ibshaway\1753215852691.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Port Said\Port Fouad\1751322836470.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Aswan\Aswan\1753216500697.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Dakahlia\Sherbin\1750956200537.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Faiyum\Tamiya\1748183476354.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Red Sea Governorate\Ras Gharib\1753102110952.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Ismailia\Ismailia\1752397302153.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Giza\Sheikh Zayed City\1753214815319.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Borg El Arab\1748184587285.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Ismailia\Fayed\1748190504090.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Luxor\Tod\1751327300215.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sharqia\Zagazig\1753097962188.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Samannoud\1753365017650.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sohag\Girga\1752290533720.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sharqia\Abu Kabir\1751553740266.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Matrouh\Marsa Matruh\1748184324196.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Luxor\Armant\1751324650562.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Sidi Gaber\1748182535781.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Faiyum\Yousef El Sediq\1748183833651.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Cairo\Cairo\1748187461033.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Samannoud\1750862971521.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Menoufia\Ashmoun\1748189049697.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Cairo\Heliopolis\1751324626610.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Dakahlia\Sherbin\1748183523234.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Menoufia\Sadat City\1748284620606.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beheira\Damanhur\1751329932794.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Dakahlia\Sherbin\1752327340805.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qena\Qus\1751325784350.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qalyubia\Qalyub\1748194095818.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Giza\6th of October City\1750956204840.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Sidi Gaber\1748187615024.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Assiut\Dayrout\1751898538517.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beni Suef\Ihnasia\1751016776832.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Minya\Maghagha\1752272692180.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Assiut\Dayrout\1751372612592.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Aswan\Kom Ombo\1752328543373.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Faiyum\Faiyum\1748190407026.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Amreya\1748187885077.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Assiut\Dayrout\1751417691617.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Cairo\Cairo\1751325126919.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Alexandria\1753251693444.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Minya\Mallawi\1751372254871.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beni Suef\El Wasta\1748183848335.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\New Valley Governorate\Balat\1748189021714.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Kafr El Sheikh\Sidi Salem\1748183818081.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qalyubia\Qalyubia\1751017073944.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Damietta\Kafr Saad\1752009957526.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Giza\Giza\1750955843820.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\New Valley Governorate\Farafra Oasis\1748187526724.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beheira\Damanhur\1748190827064.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sharqia\Belbeis\1752288681480.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Faiyum\Sinnuris\1753215102692.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\North Sinai\Nakhl\1748284200807.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Luxor\Karnak\1748284212660.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Matrouh\El Alamein\1748284350348.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beni Suef\Biba\1751554839631.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Giza\6th of October City\1753095498055.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Suez\Ain Sokhna\1753214551697.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Damietta\Ras El Bar\1748194218398.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beheira\Kafr El Dawwar\1751324755603.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sohag\El Balyana\1751645779961.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Ismailia\Ismailia\1752331726790.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Beni Suef\Ihnasia\1748184333729.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Giza\Imbaba\1748284501829.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Alexandria\Montaza\1751585782561.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Kafr El Sheikh\Sidi Salem\1748185004394.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Kafr El Sheikh\Fuwwah\1753213471369.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qena\Qena\1748183332898.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sohag\El Balyana\1752609044752.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Tanta\1753251866602.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Kafr El Zayat\1752288607805.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Luxor\Esna\1748190846939.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Matrouh\Marsa Matruh\1748190836844.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qena\Abu Tesht\1748183866459.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Assiut\Dayrout\1748188968659.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Sharqia\10th of Ramadan\1753103108213.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Port Said\El Manakh\1751980163279.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\South Sinai\Taba\1750863598833.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\North Sinai\Nakhl\1748283021256.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\South Sinai\Taba\1750704643086.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qalyubia\Banha\1748283847255.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Qalyubia\Tokh\1748822732690.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\El Mahalla El Kubra\1748284184507.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Red Sea Governorate\El Quseir\1748283822912.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Luxor\Esna\1753251757933.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Gharbia\Gharbia\1753214944403.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Damietta\Faraskur\1749208372475.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\Ismailia\Fayed\1748283787504.jpg</t>
+  </si>
+  <si>
+    <t>organized_images\New Valley Governorate\Baris\1748283044914.jpg</t>
   </si>
   <si>
     <t>c:\Users\Mahmoud\Downloads\med data\codes\prescription_data\organized_images\Cairo\Cairo\1748187885077.jpg</t>
